--- a/data/panelapp/uk/Growth failure in early childhood.xlsx
+++ b/data/panelapp/uk/Growth failure in early childhood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476157</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476167</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476171</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476173</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476176</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476179</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476182</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476184</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476187</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476190</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476193</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476195</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476198</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476201</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476203</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476205</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476208</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476211</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476214</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476216</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476219</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476221</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476224</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476226</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476229</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476232</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476235</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476237</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476240</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476242</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476245</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476247</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476250</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476253</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476255</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476258</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476261</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476263</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476266</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476269</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476272</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476275</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476278</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476280</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476283</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476286</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476289</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476291</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476294</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476297</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476299</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476302</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476305</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476308</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Growth failure in early childhood</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476369</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MSTO1</t>
+          <t>MAPK1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>misato 1, mitochondrial distribution and morphology regulator</t>
+          <t>mitogen-activated protein kinase 1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476373</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MTX2</t>
+          <t>MRAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>metaxin 2</t>
+          <t>muscle RAS oncogene homolog</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476376</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NBAS</t>
+          <t>MSTO1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>neuroblastoma amplified sequence</t>
+          <t>misato 1, mitochondrial distribution and morphology regulator</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476379</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NHLRC2</t>
+          <t>MTX2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NHL repeat containing 2</t>
+          <t>metaxin 2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476382</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NLRP2</t>
+          <t>NBAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NLR family pyrin domain containing 2</t>
+          <t>neuroblastoma amplified sequence</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476384</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NLRP5</t>
+          <t>NHLRC2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NLR family pyrin domain containing 5</t>
+          <t>NHL repeat containing 2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476387</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NLRP7</t>
+          <t>NLRP2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NLR family pyrin domain containing 7</t>
+          <t>NLR family pyrin domain containing 2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476390</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PADI6</t>
+          <t>NLRP5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>peptidyl arginine deiminase 6</t>
+          <t>NLR family pyrin domain containing 5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476392</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PLK4</t>
+          <t>NLRP7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>polo like kinase 4</t>
+          <t>NLR family pyrin domain containing 7</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476395</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RAP1B</t>
+          <t>PADI6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RAP1B, member of RAS oncogene family</t>
+          <t>peptidyl arginine deiminase 6</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476400</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RNPC3</t>
+          <t>PLK4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RNA binding region (RNP1, RRM) containing 3</t>
+          <t>polo like kinase 4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476403</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ZFP57</t>
+          <t>RAP1B</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ZFP57 zinc finger protein</t>
+          <t>RAP1B, member of RAS oncogene family</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476406</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2476,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ATRIP</t>
+          <t>RNPC3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ATR interacting protein</t>
+          <t>RNA binding region (RNP1, RRM) containing 3</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476408</t>
         </is>
       </c>
     </row>
@@ -2161,22 +2506,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ATRX</t>
+          <t>RRAS2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ATRX, chromatin remodeler</t>
+          <t>RAS related 2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476411</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2536,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BTK</t>
+          <t>VPS50</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bruton tyrosine kinase</t>
+          <t>VPS50, EARP/GARPII complex subunit</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476414</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2566,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CDC6</t>
+          <t>ZFP57</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>cell division cycle 6</t>
+          <t>ZFP57 zinc finger protein</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476416</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CDT1</t>
+          <t>ATRIP</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chromatin licensing and DNA replication factor 1</t>
+          <t>ATR interacting protein</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476419</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CENPJ</t>
+          <t>ATRX</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>centromere protein J</t>
+          <t>ATRX, chromatin remodeler</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476422</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CHD7</t>
+          <t>BTK</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chromodomain helicase DNA binding protein 7</t>
+          <t>Bruton tyrosine kinase</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476424</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COL1A1</t>
+          <t>CDC6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>collagen type I alpha 1 chain</t>
+          <t>cell division cycle 6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476427</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CREBBP</t>
+          <t>CDT1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CREB binding protein</t>
+          <t>chromatin licensing and DNA replication factor 1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476429</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CRIPT</t>
+          <t>CENPJ</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CXXC repeat containing interactor of PDZ3 domain</t>
+          <t>centromere protein J</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476434</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DHCR7</t>
+          <t>CHD7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>7-dehydrocholesterol reductase</t>
+          <t>chromodomain helicase DNA binding protein 7</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476437</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DNA2</t>
+          <t>COL1A1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DNA replication helicase/nuclease 2</t>
+          <t>collagen type I alpha 1 chain</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476440</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DOK7</t>
+          <t>CREBBP</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>docking protein 7</t>
+          <t>CREB binding protein</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476442</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EP300</t>
+          <t>CRIPT</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>E1A binding protein p300</t>
+          <t>CXXC repeat containing interactor of PDZ3 domain</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476445</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EPHX1</t>
+          <t>DHCR7</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>epoxide hydrolase 1</t>
+          <t>7-dehydrocholesterol reductase</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476447</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ERCC6</t>
+          <t>DNA2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ERCC excision repair 6, chromatin remodeling factor</t>
+          <t>DNA replication helicase/nuclease 2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476450</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ERCC8</t>
+          <t>DOK7</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
+          <t>docking protein 7</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476452</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FANCM</t>
+          <t>EP300</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group M</t>
+          <t>E1A binding protein p300</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2577,6 +3002,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476455</t>
         </is>
       </c>
     </row>
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FGD1</t>
+          <t>EPHX1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>FYVE, RhoGEF and PH domain containing 1</t>
+          <t>epoxide hydrolase 1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476458</t>
         </is>
       </c>
     </row>
@@ -2611,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FGF8</t>
+          <t>ERCC6</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>fibroblast growth factor 8</t>
+          <t>ERCC excision repair 6, chromatin remodeling factor</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2627,6 +3062,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476460</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FGFR1</t>
+          <t>ERCC8</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>fibroblast growth factor receptor 1</t>
+          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476463</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GH1</t>
+          <t>FANCM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>growth hormone 1</t>
+          <t>Fanconi anemia complementation group M</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476466</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GHR</t>
+          <t>FGD1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>growth hormone receptor</t>
+          <t>FYVE, RhoGEF and PH domain containing 1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476468</t>
         </is>
       </c>
     </row>
@@ -2711,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GHRHR</t>
+          <t>FGF8</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>growth hormone releasing hormone receptor</t>
+          <t>fibroblast growth factor 8</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2727,6 +3182,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476471</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GHSR</t>
+          <t>FGFR1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>growth hormone secretagogue receptor</t>
+          <t>fibroblast growth factor receptor 1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476473</t>
         </is>
       </c>
     </row>
@@ -2761,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GLI2</t>
+          <t>GH1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GLI family zinc finger 2</t>
+          <t>growth hormone 1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2777,6 +3242,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476478</t>
         </is>
       </c>
     </row>
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GLI3</t>
+          <t>GHR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GLI family zinc finger 3</t>
+          <t>growth hormone receptor</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476481</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GPR161</t>
+          <t>GHRHR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>G protein-coupled receptor 161</t>
+          <t>growth hormone releasing hormone receptor</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476484</t>
         </is>
       </c>
     </row>
@@ -2836,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>H19</t>
+          <t>GHSR</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>H19, imprinted maternally expressed transcript (non-protein coding)</t>
+          <t>growth hormone secretagogue receptor</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2852,6 +3332,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476486</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HDAC8</t>
+          <t>GLI2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>histone deacetylase 8</t>
+          <t>GLI family zinc finger 2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476489</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HESX1</t>
+          <t>GLI3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HESX homeobox 1</t>
+          <t>GLI family zinc finger 3</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476491</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IFT172</t>
+          <t>GPR161</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>intraflagellar transport 172</t>
+          <t>G protein-coupled receptor 161</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476494</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IGFALS</t>
+          <t>H19</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>insulin like growth factor binding protein acid labile subunit</t>
+          <t>H19, imprinted maternally expressed transcript (non-protein coding)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2952,6 +3452,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476497</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IGFBP1</t>
+          <t>HDAC8</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>insulin like growth factor binding protein 1</t>
+          <t>histone deacetylase 8</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476499</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IGFBP3</t>
+          <t>HESX1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>insulin like growth factor binding protein 3</t>
+          <t>HESX homeobox 1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3002,6 +3512,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476502</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INSR</t>
+          <t>IFT172</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>insulin receptor</t>
+          <t>intraflagellar transport 172</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476505</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INTS8</t>
+          <t>IGFALS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>integrator complex subunit 8</t>
+          <t>insulin like growth factor binding protein acid labile subunit</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3052,6 +3572,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476507</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KDM6A</t>
+          <t>IGFBP1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>lysine demethylase 6A</t>
+          <t>insulin like growth factor binding protein 1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476510</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KHDC3L</t>
+          <t>IGFBP3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>KH domain containing 3 like, subcortical maternal complex member</t>
+          <t>insulin like growth factor binding protein 3</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3102,6 +3632,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476513</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KMT2D</t>
+          <t>INSR</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>lysine methyltransferase 2D</t>
+          <t>insulin receptor</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3127,6 +3662,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476515</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LHX3</t>
+          <t>INTS8</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>LIM homeobox 3</t>
+          <t>integrator complex subunit 8</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3152,6 +3692,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476518</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LHX4</t>
+          <t>KDM6A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>LIM homeobox 4</t>
+          <t>lysine demethylase 6A</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3177,6 +3722,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476523</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LIG1</t>
+          <t>KHDC3L</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DNA ligase 1</t>
+          <t>KH domain containing 3 like, subcortical maternal complex member</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3202,6 +3752,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476526</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LIG4</t>
+          <t>KMT2D</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DNA ligase 4</t>
+          <t>lysine methyltransferase 2D</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3227,6 +3782,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476529</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MCM5</t>
+          <t>LHX3</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>minichromosome maintenance complex component 5</t>
+          <t>LIM homeobox 3</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3252,6 +3812,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476531</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NIPBL</t>
+          <t>LHX4</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NIPBL, cohesin loading factor</t>
+          <t>LIM homeobox 4</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3277,6 +3842,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476534</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ORC1</t>
+          <t>LIG1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>origin recognition complex subunit 1</t>
+          <t>DNA ligase 1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3302,6 +3872,11 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476536</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ORC4</t>
+          <t>LIG4</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>origin recognition complex subunit 4</t>
+          <t>DNA ligase 4</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3327,6 +3902,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476539</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ORC6</t>
+          <t>MCM5</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>origin recognition complex subunit 6</t>
+          <t>minichromosome maintenance complex component 5</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3352,6 +3932,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476542</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>OTX2</t>
+          <t>NIPBL</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>orthodenticle homeobox 2</t>
+          <t>NIPBL, cohesin loading factor</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3377,6 +3962,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476544</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PAPPA2</t>
+          <t>ORC1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>pappalysin 2</t>
+          <t>origin recognition complex subunit 1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3402,6 +3992,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476547</t>
         </is>
       </c>
     </row>
@@ -3411,12 +4006,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PCNT</t>
+          <t>ORC4</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>pericentrin</t>
+          <t>origin recognition complex subunit 4</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3427,6 +4022,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476550</t>
         </is>
       </c>
     </row>
@@ -3436,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PITX2</t>
+          <t>ORC6</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>paired like homeodomain 2</t>
+          <t>origin recognition complex subunit 6</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3452,6 +4052,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476552</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4066,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PNPLA6</t>
+          <t>OTX2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>patatin like phospholipase domain containing 6</t>
+          <t>orthodenticle homeobox 2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3477,6 +4082,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476555</t>
         </is>
       </c>
     </row>
@@ -3486,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>POU1F1</t>
+          <t>PAPPA2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>POU class 1 homeobox 1</t>
+          <t>pappalysin 2</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3502,6 +4112,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476558</t>
         </is>
       </c>
     </row>
@@ -3511,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PROKR2</t>
+          <t>PCNT</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>prokineticin receptor 2</t>
+          <t>pericentrin</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3527,6 +4142,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476560</t>
         </is>
       </c>
     </row>
@@ -3536,12 +4156,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PROP1</t>
+          <t>PITX2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PROP paired-like homeobox 1</t>
+          <t>paired like homeodomain 2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3552,6 +4172,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476563</t>
         </is>
       </c>
     </row>
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>RAD21</t>
+          <t>PNPLA6</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RAD21 cohesin complex component</t>
+          <t>patatin like phospholipase domain containing 6</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476566</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RAPSN</t>
+          <t>POU1F1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>receptor associated protein of the synapse</t>
+          <t>POU class 1 homeobox 1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3602,6 +4232,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476568</t>
         </is>
       </c>
     </row>
@@ -3611,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RBBP8</t>
+          <t>PROKR2</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>RB binding protein 8, endonuclease</t>
+          <t>prokineticin receptor 2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3627,6 +4262,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476571</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RNU4ATAC</t>
+          <t>PROP1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>RNA, U4atac small nuclear (U12-dependent splicing)</t>
+          <t>PROP paired-like homeobox 1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3652,6 +4292,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476573</t>
         </is>
       </c>
     </row>
@@ -3661,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ROR2</t>
+          <t>RAD21</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>receptor tyrosine kinase like orphan receptor 2</t>
+          <t>RAD21 cohesin complex component</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3677,6 +4322,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476578</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RPL10</t>
+          <t>RAPSN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ribosomal protein L10</t>
+          <t>receptor associated protein of the synapse</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3702,6 +4352,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476582</t>
         </is>
       </c>
     </row>
@@ -3711,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RPS6KA3</t>
+          <t>RBBP8</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ribosomal protein S6 kinase A3</t>
+          <t>RB binding protein 8, endonuclease</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3727,6 +4382,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476584</t>
         </is>
       </c>
     </row>
@@ -3736,12 +4396,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SAMD9</t>
+          <t>RNU4ATAC</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>sterile alpha motif domain containing 9</t>
+          <t>RNA, U4atac small nuclear (U12-dependent splicing)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3752,6 +4412,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476587</t>
         </is>
       </c>
     </row>
@@ -3761,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SHOX</t>
+          <t>ROR2</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>short stature homeobox</t>
+          <t>receptor tyrosine kinase like orphan receptor 2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3777,6 +4442,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476590</t>
         </is>
       </c>
     </row>
@@ -3786,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SHOX2</t>
+          <t>RPL10</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>short stature homeobox 2</t>
+          <t>ribosomal protein L10</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3802,6 +4472,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476593</t>
         </is>
       </c>
     </row>
@@ -3811,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SMARCAL1</t>
+          <t>RPS6KA3</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a like 1</t>
+          <t>ribosomal protein S6 kinase A3</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3827,6 +4502,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476595</t>
         </is>
       </c>
     </row>
@@ -3836,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SMC1A</t>
+          <t>SAMD9</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>structural maintenance of chromosomes 1A</t>
+          <t>sterile alpha motif domain containing 9</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3852,6 +4532,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476598</t>
         </is>
       </c>
     </row>
@@ -3861,12 +4546,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SMC3</t>
+          <t>SHOX</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>structural maintenance of chromosomes 3</t>
+          <t>short stature homeobox</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3877,6 +4562,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476601</t>
         </is>
       </c>
     </row>
@@ -3886,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SOX2</t>
+          <t>SHOX2</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SRY-box 2</t>
+          <t>short stature homeobox 2</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3902,6 +4592,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476604</t>
         </is>
       </c>
     </row>
@@ -3911,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SOX3</t>
+          <t>SMARCAL1</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SRY-box 3</t>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a like 1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3927,6 +4622,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476606</t>
         </is>
       </c>
     </row>
@@ -3936,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SPRED1</t>
+          <t>SMC1A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>sprouty related EVH1 domain containing 1</t>
+          <t>structural maintenance of chromosomes 1A</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3952,6 +4652,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476609</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>STAT5B</t>
+          <t>SMC3</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>signal transducer and activator of transcription 5B</t>
+          <t>structural maintenance of chromosomes 3</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3977,6 +4682,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476612</t>
         </is>
       </c>
     </row>
@@ -3986,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TBCE</t>
+          <t>SOX2</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>tubulin folding cofactor E</t>
+          <t>SRY-box 2</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4002,6 +4712,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476614</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>THRB</t>
+          <t>SOX3</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>thyroid hormone receptor beta</t>
+          <t>SRY-box 3</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476617</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>WRN</t>
+          <t>SPRED1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Werner syndrome RecQ like helicase</t>
+          <t>sprouty related EVH1 domain containing 1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4052,6 +4772,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476620</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>XRCC4</t>
+          <t>STAT5B</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>X-ray repair cross complementing 4</t>
+          <t>signal transducer and activator of transcription 5B</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4077,6 +4802,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476622</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ZPR1</t>
+          <t>TBCE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ZPR1 zinc finger</t>
+          <t>tubulin folding cofactor E</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4102,6 +4832,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476625</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4846,27 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MAPK1</t>
+          <t>THRB</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>mitogen-activated protein kinase 1</t>
+          <t>thyroid hormone receptor beta</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476628</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4876,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MRAS</t>
+          <t>WRN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>muscle RAS oncogene homolog</t>
+          <t>Werner syndrome RecQ like helicase</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476630</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4906,27 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RRAS2</t>
+          <t>XRCC4</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>RAS related 2</t>
+          <t>X-ray repair cross complementing 4</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476633</t>
         </is>
       </c>
     </row>
@@ -4186,22 +4936,57 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>ZPR1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ZPR1 zinc finger</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476636</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>SETD5</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>SET domain containing 5</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Growth failure in early childhood</t>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:02.476639</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Growth failure in early childhood.xlsx
+++ b/data/panelapp/uk/Growth failure in early childhood.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476157</t>
+          <t>2021-10-05 14:20:35.425339</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476167</t>
+          <t>2021-10-05 14:20:35.425347</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476171</t>
+          <t>2021-10-05 14:20:35.425351</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476173</t>
+          <t>2021-10-05 14:20:35.425353</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476176</t>
+          <t>2021-10-05 14:20:35.425356</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476179</t>
+          <t>2021-10-05 14:20:35.425359</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476182</t>
+          <t>2021-10-05 14:20:35.425361</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476184</t>
+          <t>2021-10-05 14:20:35.425364</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476187</t>
+          <t>2021-10-05 14:20:35.425367</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476190</t>
+          <t>2021-10-05 14:20:35.425369</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476193</t>
+          <t>2021-10-05 14:20:35.425372</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476195</t>
+          <t>2021-10-05 14:20:35.425374</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476198</t>
+          <t>2021-10-05 14:20:35.425377</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476201</t>
+          <t>2021-10-05 14:20:35.425379</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476203</t>
+          <t>2021-10-05 14:20:35.425382</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476205</t>
+          <t>2021-10-05 14:20:35.425384</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476208</t>
+          <t>2021-10-05 14:20:35.425387</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476211</t>
+          <t>2021-10-05 14:20:35.425390</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476214</t>
+          <t>2021-10-05 14:20:35.425392</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476216</t>
+          <t>2021-10-05 14:20:35.425395</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476219</t>
+          <t>2021-10-05 14:20:35.425397</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476221</t>
+          <t>2021-10-05 14:20:35.425400</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476224</t>
+          <t>2021-10-05 14:20:35.425402</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476226</t>
+          <t>2021-10-05 14:20:35.425405</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476229</t>
+          <t>2021-10-05 14:20:35.425407</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476232</t>
+          <t>2021-10-05 14:20:35.425410</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476235</t>
+          <t>2021-10-05 14:20:35.425412</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476237</t>
+          <t>2021-10-05 14:20:35.425415</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476240</t>
+          <t>2021-10-05 14:20:35.425417</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476242</t>
+          <t>2021-10-05 14:20:35.425420</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476245</t>
+          <t>2021-10-05 14:20:35.425422</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476247</t>
+          <t>2021-10-05 14:20:35.425425</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476250</t>
+          <t>2021-10-05 14:20:35.425428</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476253</t>
+          <t>2021-10-05 14:20:35.425430</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476255</t>
+          <t>2021-10-05 14:20:35.425433</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476258</t>
+          <t>2021-10-05 14:20:35.425435</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476261</t>
+          <t>2021-10-05 14:20:35.425438</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476263</t>
+          <t>2021-10-05 14:20:35.425440</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476266</t>
+          <t>2021-10-05 14:20:35.425443</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476269</t>
+          <t>2021-10-05 14:20:35.425445</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476272</t>
+          <t>2021-10-05 14:20:35.425448</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476275</t>
+          <t>2021-10-05 14:20:35.425451</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476278</t>
+          <t>2021-10-05 14:20:35.425453</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476280</t>
+          <t>2021-10-05 14:20:35.425456</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476283</t>
+          <t>2021-10-05 14:20:35.425458</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476286</t>
+          <t>2021-10-05 14:20:35.425461</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476289</t>
+          <t>2021-10-05 14:20:35.425463</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476291</t>
+          <t>2021-10-05 14:20:35.425466</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476294</t>
+          <t>2021-10-05 14:20:35.425468</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476297</t>
+          <t>2021-10-05 14:20:35.425471</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476299</t>
+          <t>2021-10-05 14:20:35.425473</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476302</t>
+          <t>2021-10-05 14:20:35.425476</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476305</t>
+          <t>2021-10-05 14:20:35.425478</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476308</t>
+          <t>2021-10-05 14:20:35.425481</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476369</t>
+          <t>2021-10-05 14:20:35.425483</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476373</t>
+          <t>2021-10-05 14:20:35.425486</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476376</t>
+          <t>2021-10-05 14:20:35.425488</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476379</t>
+          <t>2021-10-05 14:20:35.425491</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476382</t>
+          <t>2021-10-05 14:20:35.425493</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476384</t>
+          <t>2021-10-05 14:20:35.425496</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476387</t>
+          <t>2021-10-05 14:20:35.425499</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476390</t>
+          <t>2021-10-05 14:20:35.425501</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476392</t>
+          <t>2021-10-05 14:20:35.425504</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476395</t>
+          <t>2021-10-05 14:20:35.425506</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476400</t>
+          <t>2021-10-05 14:20:35.425510</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476403</t>
+          <t>2021-10-05 14:20:35.425513</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476406</t>
+          <t>2021-10-05 14:20:35.425515</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476408</t>
+          <t>2021-10-05 14:20:35.425518</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476411</t>
+          <t>2021-10-05 14:20:35.425520</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476414</t>
+          <t>2021-10-05 14:20:35.425523</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476416</t>
+          <t>2021-10-05 14:20:35.425525</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476419</t>
+          <t>2021-10-05 14:20:35.425528</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476422</t>
+          <t>2021-10-05 14:20:35.425530</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476424</t>
+          <t>2021-10-05 14:20:35.425533</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476427</t>
+          <t>2021-10-05 14:20:35.425535</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476429</t>
+          <t>2021-10-05 14:20:35.425538</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476434</t>
+          <t>2021-10-05 14:20:35.425542</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476437</t>
+          <t>2021-10-05 14:20:35.425545</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476440</t>
+          <t>2021-10-05 14:20:35.425548</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476442</t>
+          <t>2021-10-05 14:20:35.425551</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476445</t>
+          <t>2021-10-05 14:20:35.425553</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476447</t>
+          <t>2021-10-05 14:20:35.425555</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476450</t>
+          <t>2021-10-05 14:20:35.425558</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476452</t>
+          <t>2021-10-05 14:20:35.425560</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476455</t>
+          <t>2021-10-05 14:20:35.425563</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476458</t>
+          <t>2021-10-05 14:20:35.425565</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476460</t>
+          <t>2021-10-05 14:20:35.425568</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476463</t>
+          <t>2021-10-05 14:20:35.425570</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476466</t>
+          <t>2021-10-05 14:20:35.425573</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476468</t>
+          <t>2021-10-05 14:20:35.425575</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476471</t>
+          <t>2021-10-05 14:20:35.425578</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476473</t>
+          <t>2021-10-05 14:20:35.425580</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476478</t>
+          <t>2021-10-05 14:20:35.425584</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476481</t>
+          <t>2021-10-05 14:20:35.425587</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476484</t>
+          <t>2021-10-05 14:20:35.425589</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476486</t>
+          <t>2021-10-05 14:20:35.425592</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476489</t>
+          <t>2021-10-05 14:20:35.425594</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476491</t>
+          <t>2021-10-05 14:20:35.425597</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476494</t>
+          <t>2021-10-05 14:20:35.425599</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476497</t>
+          <t>2021-10-05 14:20:35.425602</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476499</t>
+          <t>2021-10-05 14:20:35.425604</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476502</t>
+          <t>2021-10-05 14:20:35.425607</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476505</t>
+          <t>2021-10-05 14:20:35.425609</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476507</t>
+          <t>2021-10-05 14:20:35.425612</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476510</t>
+          <t>2021-10-05 14:20:35.425614</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476513</t>
+          <t>2021-10-05 14:20:35.425617</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476515</t>
+          <t>2021-10-05 14:20:35.425619</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476518</t>
+          <t>2021-10-05 14:20:35.425622</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476523</t>
+          <t>2021-10-05 14:20:35.425626</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476526</t>
+          <t>2021-10-05 14:20:35.425629</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476529</t>
+          <t>2021-10-05 14:20:35.425632</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476531</t>
+          <t>2021-10-05 14:20:35.425634</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476534</t>
+          <t>2021-10-05 14:20:35.425637</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476536</t>
+          <t>2021-10-05 14:20:35.425640</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476539</t>
+          <t>2021-10-05 14:20:35.425642</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476542</t>
+          <t>2021-10-05 14:20:35.425645</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476544</t>
+          <t>2021-10-05 14:20:35.425647</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476547</t>
+          <t>2021-10-05 14:20:35.425650</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476550</t>
+          <t>2021-10-05 14:20:35.425652</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476552</t>
+          <t>2021-10-05 14:20:35.425655</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476555</t>
+          <t>2021-10-05 14:20:35.425658</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476558</t>
+          <t>2021-10-05 14:20:35.425661</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476560</t>
+          <t>2021-10-05 14:20:35.425663</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476563</t>
+          <t>2021-10-05 14:20:35.425666</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476566</t>
+          <t>2021-10-05 14:20:35.425668</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476568</t>
+          <t>2021-10-05 14:20:35.425671</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476571</t>
+          <t>2021-10-05 14:20:35.425673</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476573</t>
+          <t>2021-10-05 14:20:35.425676</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476578</t>
+          <t>2021-10-05 14:20:35.425680</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476582</t>
+          <t>2021-10-05 14:20:35.425684</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476584</t>
+          <t>2021-10-05 14:20:35.425686</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476587</t>
+          <t>2021-10-05 14:20:35.425689</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476590</t>
+          <t>2021-10-05 14:20:35.425691</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476593</t>
+          <t>2021-10-05 14:20:35.425694</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476595</t>
+          <t>2021-10-05 14:20:35.425697</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476598</t>
+          <t>2021-10-05 14:20:35.425699</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476601</t>
+          <t>2021-10-05 14:20:35.425702</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476604</t>
+          <t>2021-10-05 14:20:35.425704</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476606</t>
+          <t>2021-10-05 14:20:35.425707</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476609</t>
+          <t>2021-10-05 14:20:35.425710</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476612</t>
+          <t>2021-10-05 14:20:35.425712</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476614</t>
+          <t>2021-10-05 14:20:35.425715</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476617</t>
+          <t>2021-10-05 14:20:35.425717</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476620</t>
+          <t>2021-10-05 14:20:35.425720</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476622</t>
+          <t>2021-10-05 14:20:35.425723</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476625</t>
+          <t>2021-10-05 14:20:35.425725</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476628</t>
+          <t>2021-10-05 14:20:35.425728</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476630</t>
+          <t>2021-10-05 14:20:35.425731</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476633</t>
+          <t>2021-10-05 14:20:35.425734</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476636</t>
+          <t>2021-10-05 14:20:35.425736</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,91 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:02.476639</t>
+          <t>2021-10-05 14:20:35.425739</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Growth failure in early childhood</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>473</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-01T14:36:27.027770Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:20:35.422041</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/473/?format=json</t>
         </is>
       </c>
     </row>
